--- a/课程内容/高等数学（上）.xlsx
+++ b/课程内容/高等数学（上）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30825" windowHeight="13710"/>
+    <workbookView windowWidth="20531" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
   <si>
     <t>高等数学（上）</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>07:29</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t>函数的概念</t>
@@ -560,12 +563,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,8 +602,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -608,14 +633,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -631,14 +664,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,46 +731,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,51 +745,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -759,13 +755,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,25 +881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,13 +905,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,121 +923,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,9 +1003,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,6 +1037,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1053,17 +1066,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,173 +1098,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1646,19 +1642,19 @@
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="3"/>
+    <col min="3" max="3" width="14.8796296296296" style="3"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="54.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.8796296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:5">
+    <row r="1" ht="14.4" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1685,6 @@
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
@@ -1706,95 +1701,109 @@
       <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -1806,10 +1815,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1819,10 +1828,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1832,10 +1841,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1845,10 +1854,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1858,10 +1867,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="11">
         <v>3</v>
@@ -1873,10 +1882,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="6"/>
@@ -1886,10 +1895,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="6"/>
@@ -1899,10 +1908,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="6"/>
@@ -1912,10 +1921,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="6"/>
@@ -1923,7 +1932,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="6"/>
       <c r="B21" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6"/>
@@ -1934,10 +1943,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="10">
         <v>4</v>
@@ -1949,10 +1958,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="6"/>
@@ -1962,10 +1971,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="6"/>
@@ -1975,10 +1984,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="6"/>
@@ -1988,10 +1997,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="6"/>
@@ -2001,10 +2010,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
@@ -2014,10 +2023,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="6"/>
@@ -2027,10 +2036,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10">
         <v>5</v>
@@ -2042,10 +2051,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="6"/>
@@ -2055,10 +2064,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="6"/>
@@ -2068,10 +2077,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="6"/>
@@ -2081,10 +2090,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="6"/>
@@ -2094,10 +2103,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="6"/>
@@ -2107,10 +2116,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="6"/>
@@ -2118,7 +2127,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6"/>
@@ -2129,10 +2138,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D37" s="10">
         <v>6</v>
@@ -2144,10 +2153,10 @@
         <v>33</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="6"/>
@@ -2157,10 +2166,10 @@
         <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="6"/>
@@ -2170,10 +2179,10 @@
         <v>35</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="6"/>
@@ -2183,10 +2192,10 @@
         <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D41" s="6">
         <v>7</v>
@@ -2198,10 +2207,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -2211,10 +2220,10 @@
         <v>38</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -2224,10 +2233,10 @@
         <v>39</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2237,10 +2246,10 @@
         <v>40</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -2250,10 +2259,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D46" s="10">
         <v>8</v>
@@ -2265,10 +2274,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="13"/>
@@ -2278,10 +2287,10 @@
         <v>43</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="13"/>
@@ -2291,10 +2300,10 @@
         <v>44</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="13"/>
@@ -2304,10 +2313,10 @@
         <v>45</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="13"/>
@@ -2317,10 +2326,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D51" s="6">
         <v>9</v>
@@ -2332,10 +2341,10 @@
         <v>47</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="13"/>
@@ -2345,10 +2354,10 @@
         <v>48</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="13"/>
@@ -2358,10 +2367,10 @@
         <v>49</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="13"/>
@@ -2371,10 +2380,10 @@
         <v>50</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="13"/>
@@ -2382,7 +2391,7 @@
     <row r="56" spans="1:5">
       <c r="A56" s="13"/>
       <c r="B56" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="13"/>
@@ -2393,10 +2402,10 @@
         <v>51</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D57" s="10">
         <v>10</v>
@@ -2408,10 +2417,10 @@
         <v>52</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="13"/>
@@ -2421,10 +2430,10 @@
         <v>53</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="13"/>
@@ -2434,10 +2443,10 @@
         <v>54</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="13"/>
@@ -2447,10 +2456,10 @@
         <v>55</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="13"/>
@@ -2460,10 +2469,10 @@
         <v>56</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="13"/>
@@ -2473,10 +2482,10 @@
         <v>57</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D63" s="10">
         <v>11</v>
@@ -2488,10 +2497,10 @@
         <v>58</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="13"/>
@@ -2501,10 +2510,10 @@
         <v>59</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="13"/>
@@ -2514,10 +2523,10 @@
         <v>60</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="13"/>
@@ -2527,10 +2536,10 @@
         <v>61</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="13"/>
@@ -2540,10 +2549,10 @@
         <v>62</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D68" s="6">
         <v>12</v>
@@ -2555,10 +2564,10 @@
         <v>63</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="13"/>
@@ -2568,10 +2577,10 @@
         <v>64</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="13"/>
@@ -2581,10 +2590,10 @@
         <v>65</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="13"/>
@@ -2594,10 +2603,10 @@
         <v>66</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="13"/>
@@ -2607,10 +2616,10 @@
         <v>67</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D73" s="10">
         <v>13</v>
@@ -2622,10 +2631,10 @@
         <v>68</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="13"/>
@@ -2635,10 +2644,10 @@
         <v>69</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="13"/>
@@ -2648,10 +2657,10 @@
         <v>70</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="13"/>
@@ -2661,10 +2670,10 @@
         <v>71</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D77" s="6">
         <v>14</v>
@@ -2676,10 +2685,10 @@
         <v>72</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="13"/>
@@ -2689,10 +2698,10 @@
         <v>73</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="13"/>
@@ -2702,10 +2711,10 @@
         <v>74</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="13"/>
@@ -2713,7 +2722,7 @@
     <row r="81" spans="1:5">
       <c r="A81" s="13"/>
       <c r="B81" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="13"/>
@@ -2724,10 +2733,10 @@
         <v>75</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D82" s="10">
         <v>15</v>
@@ -2739,10 +2748,10 @@
         <v>76</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="13"/>
@@ -2752,10 +2761,10 @@
         <v>77</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="13"/>
@@ -2765,10 +2774,10 @@
         <v>78</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="13"/>
@@ -2778,10 +2787,10 @@
         <v>79</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D86" s="6">
         <v>16</v>
@@ -2793,10 +2802,10 @@
         <v>80</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="13"/>
@@ -2806,10 +2815,10 @@
         <v>81</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="13"/>
@@ -2819,10 +2828,10 @@
         <v>82</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="13"/>
@@ -2832,10 +2841,10 @@
         <v>83</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D90" s="11">
         <v>17</v>
@@ -2847,10 +2856,10 @@
         <v>84</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="13"/>
@@ -2860,10 +2869,10 @@
         <v>85</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="13"/>
@@ -2873,10 +2882,10 @@
         <v>86</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="13"/>
@@ -2920,7 +2929,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2937,7 +2946,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/课程内容/高等数学（上）.xlsx
+++ b/课程内容/高等数学（上）.xlsx
@@ -563,8 +563,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -603,22 +603,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,14 +631,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -655,9 +639,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,6 +669,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -691,33 +698,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,8 +730,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,181 +755,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,10 +1003,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1016,7 +1014,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,21 +1054,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,18 +1075,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,145 +1106,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1641,8 +1641,8 @@
   <sheetPr/>
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1808,7 +1808,9 @@
       <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6">
@@ -1821,7 +1823,9 @@
         <v>25</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6">
@@ -1834,7 +1838,9 @@
         <v>27</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6">
@@ -1847,7 +1853,9 @@
         <v>29</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6">
@@ -1860,7 +1868,9 @@
         <v>31</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6">

--- a/课程内容/高等数学（上）.xlsx
+++ b/课程内容/高等数学（上）.xlsx
@@ -563,10 +563,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -609,8 +609,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,6 +634,42 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,49 +699,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -716,13 +717,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -737,14 +745,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -755,37 +755,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,13 +917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,127 +929,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,15 +1010,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1034,15 +1025,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1054,6 +1036,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,6 +1081,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1083,21 +1098,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1106,10 +1106,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,19 +1118,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,112 +1139,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1642,7 +1642,7 @@
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:E20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1885,7 +1885,9 @@
       <c r="D16" s="11">
         <v>3</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6">
@@ -1898,7 +1900,9 @@
         <v>35</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6">
@@ -1911,7 +1915,9 @@
         <v>37</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6">
@@ -1924,7 +1930,9 @@
         <v>39</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6">
@@ -1937,7 +1945,9 @@
         <v>41</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6"/>

--- a/课程内容/高等数学（上）.xlsx
+++ b/课程内容/高等数学（上）.xlsx
@@ -563,10 +563,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -603,7 +603,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,29 +662,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,16 +684,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,40 +709,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,20 +731,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -752,6 +752,84 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -761,25 +839,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,49 +869,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,19 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,73 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,21 +1011,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1036,15 +1021,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,6 +1036,32 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,19 +1084,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,10 +1106,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,133 +1118,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1641,8 +1641,8 @@
   <sheetPr/>
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1971,7 +1971,9 @@
       <c r="D22" s="10">
         <v>4</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="6">
@@ -1984,7 +1986,9 @@
         <v>46</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6">
@@ -1997,7 +2001,9 @@
         <v>48</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6">
@@ -2010,7 +2016,9 @@
         <v>50</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="6">
@@ -2023,7 +2031,9 @@
         <v>52</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6">
@@ -2036,7 +2046,9 @@
         <v>54</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="6">
@@ -2049,7 +2061,9 @@
         <v>56</v>
       </c>
       <c r="D28" s="12"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="6">
@@ -2064,7 +2078,9 @@
       <c r="D29" s="10">
         <v>5</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6">
@@ -2077,7 +2093,9 @@
         <v>60</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6">
@@ -2090,7 +2108,9 @@
         <v>62</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6">
@@ -2103,7 +2123,9 @@
         <v>64</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6">
@@ -2116,7 +2138,9 @@
         <v>66</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="6">
@@ -2129,7 +2153,9 @@
         <v>68</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="6">
@@ -2142,7 +2168,9 @@
         <v>70</v>
       </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="6"/>

--- a/课程内容/高等数学（上）.xlsx
+++ b/课程内容/高等数学（上）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20531" windowHeight="10500"/>
+    <workbookView windowWidth="20565" windowHeight="18630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,10 +563,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -603,6 +603,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -617,16 +624,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,7 +678,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -655,23 +694,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,7 +716,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,24 +730,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,22 +740,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,7 +755,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,19 +815,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,7 +839,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,25 +875,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,25 +899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,79 +929,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,6 +1011,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1021,6 +1045,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,32 +1069,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,18 +1090,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,10 +1106,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,133 +1118,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1641,20 +1641,20 @@
   <sheetPr/>
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.8796296296296" style="3"/>
+    <col min="3" max="3" width="14.8833333333333" style="3"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="54.8796296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.8833333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:5">
+    <row r="1" ht="13.5" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2194,7 +2194,9 @@
       <c r="D37" s="10">
         <v>6</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="6">
@@ -2207,7 +2209,9 @@
         <v>75</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="6">
@@ -2220,7 +2224,9 @@
         <v>77</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="6">
@@ -2233,7 +2239,9 @@
         <v>79</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="6">
@@ -2248,7 +2256,9 @@
       <c r="D41" s="6">
         <v>7</v>
       </c>
-      <c r="E41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="6">
@@ -2261,7 +2271,9 @@
         <v>83</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="6">
@@ -2274,7 +2286,9 @@
         <v>85</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="6">
@@ -2287,7 +2301,9 @@
         <v>87</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="6">
@@ -2300,7 +2316,9 @@
         <v>89</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="6">
@@ -2977,7 +2995,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2994,7 +3012,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/课程内容/高等数学（上）.xlsx
+++ b/课程内容/高等数学（上）.xlsx
@@ -563,8 +563,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -616,15 +616,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,29 +633,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -679,14 +657,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -694,7 +664,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,21 +672,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,6 +693,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,6 +738,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -755,7 +755,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +827,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,13 +851,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,31 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,66 +923,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -911,31 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,15 +1025,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1052,8 +1043,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,21 +1088,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1106,145 +1106,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1641,8 +1641,8 @@
   <sheetPr/>
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2333,7 +2333,9 @@
       <c r="D46" s="10">
         <v>8</v>
       </c>
-      <c r="E46" s="13"/>
+      <c r="E46" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="6">
@@ -2346,7 +2348,9 @@
         <v>93</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="13"/>
+      <c r="E47" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="6">
@@ -2359,7 +2363,9 @@
         <v>95</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="13"/>
+      <c r="E48" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="6">
@@ -2372,7 +2378,9 @@
         <v>97</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="13"/>
+      <c r="E49" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="6">
@@ -2385,7 +2393,9 @@
         <v>99</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="13"/>
+      <c r="E50" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="6">
@@ -2400,7 +2410,9 @@
       <c r="D51" s="6">
         <v>9</v>
       </c>
-      <c r="E51" s="13"/>
+      <c r="E51" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="6">
@@ -2413,7 +2425,9 @@
         <v>103</v>
       </c>
       <c r="D52" s="6"/>
-      <c r="E52" s="13"/>
+      <c r="E52" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="6">
@@ -2426,7 +2440,9 @@
         <v>105</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="13"/>
+      <c r="E53" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="6">
@@ -2439,7 +2455,9 @@
         <v>107</v>
       </c>
       <c r="D54" s="6"/>
-      <c r="E54" s="13"/>
+      <c r="E54" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="6">
@@ -2452,7 +2470,9 @@
         <v>109</v>
       </c>
       <c r="D55" s="6"/>
-      <c r="E55" s="13"/>
+      <c r="E55" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="13"/>
@@ -2476,7 +2496,9 @@
       <c r="D57" s="10">
         <v>10</v>
       </c>
-      <c r="E57" s="13"/>
+      <c r="E57" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="6">
@@ -2489,7 +2511,9 @@
         <v>114</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="13"/>
+      <c r="E58" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="6">
@@ -2502,7 +2526,9 @@
         <v>116</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="13"/>
+      <c r="E59" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="6">
@@ -2515,7 +2541,9 @@
         <v>85</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="13"/>
+      <c r="E60" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="6">
@@ -2528,7 +2556,9 @@
         <v>119</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="13"/>
+      <c r="E61" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6">
@@ -2541,7 +2571,9 @@
         <v>121</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="13"/>
+      <c r="E62" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="6">
@@ -2556,7 +2588,9 @@
       <c r="D63" s="10">
         <v>11</v>
       </c>
-      <c r="E63" s="13"/>
+      <c r="E63" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="6">
@@ -2569,7 +2603,9 @@
         <v>125</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="13"/>
+      <c r="E64" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="6">
@@ -2582,7 +2618,9 @@
         <v>127</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="13"/>
+      <c r="E65" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="6">
@@ -2595,7 +2633,9 @@
         <v>129</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="13"/>
+      <c r="E66" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="6">
@@ -2608,7 +2648,9 @@
         <v>131</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="13"/>
+      <c r="E67" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="6">
@@ -2623,7 +2665,9 @@
       <c r="D68" s="6">
         <v>12</v>
       </c>
-      <c r="E68" s="13"/>
+      <c r="E68" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="6">
@@ -2636,7 +2680,9 @@
         <v>135</v>
       </c>
       <c r="D69" s="6"/>
-      <c r="E69" s="13"/>
+      <c r="E69" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="6">

--- a/课程内容/高等数学（上）.xlsx
+++ b/课程内容/高等数学（上）.xlsx
@@ -563,9 +563,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -609,6 +609,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -616,23 +631,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -656,7 +670,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -664,7 +694,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,6 +702,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,52 +740,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -755,7 +755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,6 +779,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -779,19 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,7 +911,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,127 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,6 +1001,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1025,6 +1058,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1036,24 +1080,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,32 +1098,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1106,10 +1106,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,133 +1118,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1641,8 +1641,8 @@
   <sheetPr/>
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2695,7 +2695,9 @@
         <v>137</v>
       </c>
       <c r="D70" s="6"/>
-      <c r="E70" s="13"/>
+      <c r="E70" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="6">
@@ -2708,7 +2710,9 @@
         <v>139</v>
       </c>
       <c r="D71" s="6"/>
-      <c r="E71" s="13"/>
+      <c r="E71" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="6">
@@ -2721,7 +2725,9 @@
         <v>141</v>
       </c>
       <c r="D72" s="6"/>
-      <c r="E72" s="13"/>
+      <c r="E72" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="6">
@@ -2736,7 +2742,9 @@
       <c r="D73" s="10">
         <v>13</v>
       </c>
-      <c r="E73" s="13"/>
+      <c r="E73" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="6">
@@ -2749,7 +2757,9 @@
         <v>145</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="13"/>
+      <c r="E74" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="6">
@@ -2762,7 +2772,9 @@
         <v>147</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="13"/>
+      <c r="E75" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="6">
@@ -2775,7 +2787,9 @@
         <v>149</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="13"/>
+      <c r="E76" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="6">

--- a/课程内容/高等数学（上）.xlsx
+++ b/课程内容/高等数学（上）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20565" windowHeight="18630"/>
+    <workbookView windowWidth="21000" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,8 +565,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -603,82 +603,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -701,7 +625,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,7 +663,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,24 +731,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,7 +755,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,55 +917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,115 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,43 +1001,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1060,26 +1053,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,6 +1089,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1106,145 +1106,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1641,8 +1641,8 @@
   <sheetPr/>
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2804,7 +2804,9 @@
       <c r="D77" s="6">
         <v>14</v>
       </c>
-      <c r="E77" s="13"/>
+      <c r="E77" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="6">
@@ -2817,7 +2819,9 @@
         <v>153</v>
       </c>
       <c r="D78" s="6"/>
-      <c r="E78" s="13"/>
+      <c r="E78" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="6">
@@ -2830,7 +2834,9 @@
         <v>31</v>
       </c>
       <c r="D79" s="6"/>
-      <c r="E79" s="13"/>
+      <c r="E79" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="6">
@@ -2843,7 +2849,9 @@
         <v>156</v>
       </c>
       <c r="D80" s="6"/>
-      <c r="E80" s="13"/>
+      <c r="E80" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="13"/>
